--- a/Daymakers/output/pred_proba.xlsx
+++ b/Daymakers/output/pred_proba.xlsx
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4505966901779175</v>
+        <v>0.885958731174469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5494033098220825</v>
+        <v>0.1140412539243698</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2194385528564453</v>
+        <v>0.1434265375137329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7805614471435547</v>
+        <v>0.8565734624862671</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -522,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9816266894340515</v>
+        <v>0.8464580178260803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01837330497801304</v>
+        <v>0.1535419970750809</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09731137752532959</v>
+        <v>0.06500309705734253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9026886224746704</v>
+        <v>0.9349969029426575</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9605889916419983</v>
+        <v>0.07823103666305542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03941098973155022</v>
+        <v>0.9217689633369446</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -603,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.937308132648468</v>
+        <v>0.1777597069740295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06269185245037079</v>
+        <v>0.8222402930259705</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -630,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0007231831550598145</v>
+        <v>0.01106107234954834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992768168449402</v>
+        <v>0.9889389276504517</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -657,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002588570117950439</v>
+        <v>0.0003154277801513672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9974114298820496</v>
+        <v>0.9996845722198486</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -684,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.006055653095245361</v>
+        <v>0.002749860286712646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9939443469047546</v>
+        <v>0.9972501397132874</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -711,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9987561702728271</v>
+        <v>0.9990435838699341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001243819948285818</v>
+        <v>0.0009564443025738001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9769439101219177</v>
+        <v>0.8685330748558044</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02305609546601772</v>
+        <v>0.1314669251441956</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0405040979385376</v>
+        <v>0.1119828224182129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9594959020614624</v>
+        <v>0.8880171775817871</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9385035634040833</v>
+        <v>0.9967525005340576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06149642169475555</v>
+        <v>0.003247488057240844</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -819,10 +819,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002209663391113281</v>
+        <v>0.001113712787628174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9977903366088867</v>
+        <v>0.9988862872123718</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -846,10 +846,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1765866279602051</v>
+        <v>0.7937754392623901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8234133720397949</v>
+        <v>0.2062245458364487</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -873,10 +873,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.008915901184082031</v>
+        <v>0.0007418990135192871</v>
       </c>
       <c r="C17" t="n">
-        <v>0.991084098815918</v>
+        <v>0.9992581009864807</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.004152953624725342</v>
+        <v>0.0007066726684570312</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9958470463752747</v>
+        <v>0.999293327331543</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -927,10 +927,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0004860162734985352</v>
+        <v>0.0002605319023132324</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9995139837265015</v>
+        <v>0.9997394680976868</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -954,10 +954,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183762788772583</v>
+        <v>0.3670702576637268</v>
       </c>
       <c r="C20" t="n">
-        <v>0.816237211227417</v>
+        <v>0.6329297423362732</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -981,10 +981,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7734943628311157</v>
+        <v>0.8170197010040283</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2265056073665619</v>
+        <v>0.1829802840948105</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1008,10 +1008,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9994972944259644</v>
+        <v>0.9993554949760437</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005027010338380933</v>
+        <v>0.0006444823811762035</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0005872249603271484</v>
+        <v>0.00202101469039917</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9994127750396729</v>
+        <v>0.9979789853096008</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9541399478912354</v>
+        <v>0.69997638463974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04586007818579674</v>
+        <v>0.30002361536026</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6403138637542725</v>
+        <v>0.5444421768188477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3596861064434052</v>
+        <v>0.4555578231811523</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.998102068901062</v>
+        <v>0.9964485764503479</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001897933310829103</v>
+        <v>0.003551427274942398</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1717060804367065</v>
+        <v>0.2177513241767883</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8282939195632935</v>
+        <v>0.7822486758232117</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1170,10 +1170,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002173960208892822</v>
+        <v>0.01799404621124268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9978260397911072</v>
+        <v>0.9820059537887573</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1197,10 +1197,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4493975639343262</v>
+        <v>0.6076430082321167</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5506024360656738</v>
+        <v>0.3923569917678833</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1224,10 +1224,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003653824329376221</v>
+        <v>0.003819942474365234</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9963461756706238</v>
+        <v>0.9961800575256348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1251,10 +1251,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9993799924850464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001362036797218025</v>
+        <v>0.0006200259667821229</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1278,10 +1278,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4491373300552368</v>
+        <v>0.1582268476486206</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5508626699447632</v>
+        <v>0.8417731523513794</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1305,10 +1305,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9298335313796997</v>
+        <v>0.9884815812110901</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07016649842262268</v>
+        <v>0.0115184374153614</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05660754442214966</v>
+        <v>0.1597331762313843</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9433924555778503</v>
+        <v>0.8402668237686157</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1359,10 +1359,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3307453989982605</v>
+        <v>0.2420862317085266</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6692546010017395</v>
+        <v>0.7579137682914734</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9077240824699402</v>
+        <v>0.9754836559295654</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09227592498064041</v>
+        <v>0.02451633475720882</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.002222120761871338</v>
+        <v>0.001010596752166748</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9977778792381287</v>
+        <v>0.9989894032478333</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09130126237869263</v>
+        <v>0.02032947540283203</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9086987376213074</v>
+        <v>0.979670524597168</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9011033177375793</v>
+        <v>0.6200512051582336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09889665991067886</v>
+        <v>0.3799487948417664</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1494,10 +1494,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001315295696258545</v>
+        <v>0.0008949637413024902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9986847043037415</v>
+        <v>0.9991050362586975</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3917232751846313</v>
+        <v>0.4774778485298157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6082767248153687</v>
+        <v>0.5225221514701843</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2405725717544556</v>
+        <v>0.08212453126907349</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7594274282455444</v>
+        <v>0.9178754687309265</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1575,10 +1575,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6882199645042419</v>
+        <v>0.3708997964859009</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3117800354957581</v>
+        <v>0.6291002035140991</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1602,10 +1602,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.873890221118927</v>
+        <v>0.9935557842254639</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1261097639799118</v>
+        <v>0.006444208789616823</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1629,10 +1629,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04354768991470337</v>
+        <v>0.3757799863815308</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9564523100852966</v>
+        <v>0.6242200136184692</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1656,10 +1656,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.005918562412261963</v>
+        <v>0.01450073719024658</v>
       </c>
       <c r="C46" t="n">
-        <v>0.994081437587738</v>
+        <v>0.9854992628097534</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1683,10 +1683,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.007710874080657959</v>
+        <v>0.1065211296081543</v>
       </c>
       <c r="C47" t="n">
-        <v>0.992289125919342</v>
+        <v>0.8934788703918457</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01780378818511963</v>
+        <v>0.0005155801773071289</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9821962118148804</v>
+        <v>0.9994844198226929</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1737,10 +1737,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.009894788265228271</v>
+        <v>0.009271383285522461</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9901052117347717</v>
+        <v>0.9907286167144775</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1764,10 +1764,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8743840456008911</v>
+        <v>0.9463474750518799</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1256159842014313</v>
+        <v>0.05365252867341042</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01713293790817261</v>
+        <v>0.005650222301483154</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9828670620918274</v>
+        <v>0.9943497776985168</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1818,10 +1818,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.008254706859588623</v>
+        <v>0.01458191871643066</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9917452931404114</v>
+        <v>0.9854180812835693</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1845,10 +1845,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07936346530914307</v>
+        <v>0.08844101428985596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9206365346908569</v>
+        <v>0.911558985710144</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1872,10 +1872,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000304102897644043</v>
+        <v>0.0001459121704101562</v>
       </c>
       <c r="C54" t="n">
-        <v>0.999695897102356</v>
+        <v>0.9998540878295898</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.967851996421814</v>
+        <v>0.2466885447502136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03214799985289574</v>
+        <v>0.7533114552497864</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1926,10 +1926,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0008304119110107422</v>
+        <v>0.0006886720657348633</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9991695880889893</v>
+        <v>0.9993113279342651</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1953,10 +1953,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07805734872817993</v>
+        <v>0.0100027322769165</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9219426512718201</v>
+        <v>0.9899972677230835</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4006488919258118</v>
+        <v>0.547443151473999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5993511080741882</v>
+        <v>0.4525568783283234</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2007,10 +2007,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.002255797386169434</v>
+        <v>0.00118023157119751</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9977442026138306</v>
+        <v>0.9988197684288025</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2034,10 +2034,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1517605781555176</v>
+        <v>0.009057462215423584</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8482394218444824</v>
+        <v>0.9909425377845764</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07710772752761841</v>
+        <v>0.442179799079895</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9228922724723816</v>
+        <v>0.557820200920105</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2088,10 +2088,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02718085050582886</v>
+        <v>0.006697297096252441</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9728191494941711</v>
+        <v>0.9933027029037476</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2115,10 +2115,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9147018194198608</v>
+        <v>0.0418848991394043</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08529817312955856</v>
+        <v>0.9581151008605957</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2142,10 +2142,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.989207923412323</v>
+        <v>0.9950399398803711</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01079209800809622</v>
+        <v>0.004960034508258104</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7841774225234985</v>
+        <v>0.9974629282951355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2158225476741791</v>
+        <v>0.002537052147090435</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.995282769203186</v>
+        <v>0.9876422882080078</v>
       </c>
       <c r="C66" t="n">
-        <v>0.004717222880572081</v>
+        <v>0.0123577369377017</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2223,10 +2223,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.667873382568359e-05</v>
+        <v>0.0002151131629943848</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9999033212661743</v>
+        <v>0.9997848868370056</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2250,10 +2250,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1691308617591858</v>
+        <v>0.01241326332092285</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8308691382408142</v>
+        <v>0.9875867366790771</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2277,10 +2277,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9906646609306335</v>
+        <v>0.9763545393943787</v>
       </c>
       <c r="C69" t="n">
-        <v>0.009335353039205074</v>
+        <v>0.02364544756710529</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2304,10 +2304,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1739683747291565</v>
+        <v>0.02896469831466675</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8260316252708435</v>
+        <v>0.9710353016853333</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9318931698799133</v>
+        <v>0.724856436252594</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06810682266950607</v>
+        <v>0.275143563747406</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9987480640411377</v>
+        <v>0.9917483925819397</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00125195097643882</v>
+        <v>0.008251586928963661</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2385,10 +2385,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9712796807289124</v>
+        <v>0.8700167536735535</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02872029691934586</v>
+        <v>0.1299832463264465</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2412,10 +2412,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9471593499183655</v>
+        <v>0.9144811630249023</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05284063518047333</v>
+        <v>0.08551884442567825</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2439,10 +2439,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6593135595321655</v>
+        <v>0.8882326483726501</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3406864702701569</v>
+        <v>0.1117673516273499</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2466,10 +2466,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9980358481407166</v>
+        <v>0.9769952893257141</v>
       </c>
       <c r="C76" t="n">
-        <v>0.001964122988283634</v>
+        <v>0.02300472557544708</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2493,10 +2493,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7537541389465332</v>
+        <v>0.6844320297241211</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246245875954628</v>
+        <v>0.3155679404735565</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2520,10 +2520,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.998008668422699</v>
+        <v>0.9297777414321899</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001991302939131856</v>
+        <v>0.07022225111722946</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2547,10 +2547,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8491262793540955</v>
+        <v>0.7221165895462036</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1508737355470657</v>
+        <v>0.2778834104537964</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2574,10 +2574,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9062037467956543</v>
+        <v>0.7536366581916809</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09379622340202332</v>
+        <v>0.2463633269071579</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3582968711853027</v>
+        <v>0.1649060845375061</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6417031288146973</v>
+        <v>0.8350939154624939</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2628,10 +2628,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.580352783203125e-05</v>
+        <v>0.00188148021697998</v>
       </c>
       <c r="C82" t="n">
-        <v>0.999934196472168</v>
+        <v>0.99811851978302</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2655,10 +2655,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2274034023284912</v>
+        <v>0.3471218347549438</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7725965976715088</v>
+        <v>0.6528781652450562</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1008583903312683</v>
+        <v>0.1905665397644043</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8991416096687317</v>
+        <v>0.8094334602355957</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2709,10 +2709,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8639857769012451</v>
+        <v>0.6406511068344116</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1360142081975937</v>
+        <v>0.3593488931655884</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2736,10 +2736,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9896602034568787</v>
+        <v>0.5934711694717407</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01033981703221798</v>
+        <v>0.4065288007259369</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9825085401535034</v>
+        <v>0.9624339938163757</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01749143004417419</v>
+        <v>0.03756599500775337</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2790,10 +2790,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0002588629722595215</v>
+        <v>0.0004468560218811035</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9997411370277405</v>
+        <v>0.9995531439781189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2817,10 +2817,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2718085646629333</v>
+        <v>0.2137624025344849</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7281914353370667</v>
+        <v>0.7862375974655151</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2844,10 +2844,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9966569542884827</v>
+        <v>0.9714676737785339</v>
       </c>
       <c r="C90" t="n">
-        <v>0.003343048272654414</v>
+        <v>0.0285323541611433</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2871,10 +2871,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.002026140689849854</v>
+        <v>0.007559061050415039</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9979738593101501</v>
+        <v>0.992440938949585</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8508563637733459</v>
+        <v>0.2894399762153625</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1491436511278152</v>
+        <v>0.7105600237846375</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2925,10 +2925,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8113831281661987</v>
+        <v>0.7308541536331177</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1886168867349625</v>
+        <v>0.2691458761692047</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1391252279281616</v>
+        <v>0.1950471997261047</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8608747720718384</v>
+        <v>0.8049528002738953</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2979,10 +2979,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.001606762409210205</v>
+        <v>0.004692018032073975</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9983932375907898</v>
+        <v>0.995307981967926</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3006,10 +3006,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8836889863014221</v>
+        <v>0.7258517742156982</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1163110285997391</v>
+        <v>0.2741482555866241</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3033,10 +3033,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04284018278121948</v>
+        <v>0.1140612959861755</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9571598172187805</v>
+        <v>0.8859387040138245</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001479089260101318</v>
+        <v>0.001542568206787109</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9985209107398987</v>
+        <v>0.9984574317932129</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3087,10 +3087,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.008695602416992188</v>
+        <v>0.05456161499023438</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9913043975830078</v>
+        <v>0.9454383850097656</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3114,10 +3114,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00218510627746582</v>
+        <v>0.003348886966705322</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9978148937225342</v>
+        <v>0.9966511130332947</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3141,10 +3141,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.008306324481964111</v>
+        <v>0.01895016431808472</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9916936755180359</v>
+        <v>0.9810498356819153</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0004965066909790039</v>
+        <v>0.001393616199493408</v>
       </c>
       <c r="C102" t="n">
-        <v>0.999503493309021</v>
+        <v>0.9986063838005066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3195,10 +3195,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.007471203804016113</v>
+        <v>0.02473890781402588</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9925287961959839</v>
+        <v>0.9752610921859741</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.07702130079269409</v>
+        <v>0.00160139799118042</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9229786992073059</v>
+        <v>0.9983986020088196</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9999142289161682</v>
+        <v>0.9994302988052368</v>
       </c>
       <c r="C105" t="n">
-        <v>8.578434062656015e-05</v>
+        <v>0.0005696982843801379</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3276,10 +3276,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9994251132011414</v>
+        <v>0.9993922114372253</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0005748856347054243</v>
+        <v>0.0006077598663978279</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3303,10 +3303,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5019924640655518</v>
+        <v>0.05099225044250488</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4980075061321259</v>
+        <v>0.9490077495574951</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3330,10 +3330,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1124047040939331</v>
+        <v>0.6353914737701416</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8875952959060669</v>
+        <v>0.3646085262298584</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3357,10 +3357,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9587883949279785</v>
+        <v>0.4244323968887329</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04121160507202148</v>
+        <v>0.5755676031112671</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3384,10 +3384,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1875254511833191</v>
+        <v>0.1923021078109741</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8124745488166809</v>
+        <v>0.8076978921890259</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3411,10 +3411,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.05635541677474976</v>
+        <v>0.01519572734832764</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9436445832252502</v>
+        <v>0.9848042726516724</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3438,10 +3438,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8891987204551697</v>
+        <v>0.2667122483253479</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1108012795448303</v>
+        <v>0.7332877516746521</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3465,10 +3465,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.009764730930328369</v>
+        <v>0.002353250980377197</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9902352690696716</v>
+        <v>0.9976467490196228</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3492,10 +3492,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2917957901954651</v>
+        <v>0.1756129860877991</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7082042098045349</v>
+        <v>0.8243870139122009</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3519,10 +3519,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01324087381362915</v>
+        <v>0.005506753921508789</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9867591261863708</v>
+        <v>0.9944932460784912</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3546,10 +3546,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9984579086303711</v>
+        <v>0.9995397329330444</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001542093465104699</v>
+        <v>0.0004602374392561615</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3573,10 +3573,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4093735218048096</v>
+        <v>0.1761179566383362</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5906264781951904</v>
+        <v>0.8238820433616638</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9848796725273132</v>
+        <v>0.9059742093086243</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01512035075575113</v>
+        <v>0.09402581304311752</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0018349289894104</v>
+        <v>0.002332389354705811</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9981650710105896</v>
+        <v>0.9976676106452942</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3654,10 +3654,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9992048144340515</v>
+        <v>0.9970929026603699</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0007952149026095867</v>
+        <v>0.002907110843807459</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3681,10 +3681,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3182789087295532</v>
+        <v>0.7919391393661499</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6817210912704468</v>
+        <v>0.2080608308315277</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3708,10 +3708,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7656189203262329</v>
+        <v>0.74358731508255</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2343810945749283</v>
+        <v>0.25641268491745</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3735,10 +3735,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9975667595863342</v>
+        <v>0.9813084602355957</v>
       </c>
       <c r="C123" t="n">
-        <v>0.002433224348351359</v>
+        <v>0.01869153045117855</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3762,10 +3762,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.05923265218734741</v>
+        <v>0.009102284908294678</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9407673478126526</v>
+        <v>0.9908977150917053</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3789,10 +3789,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9868087768554688</v>
+        <v>0.8652907013893127</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01319123990833759</v>
+        <v>0.1347092837095261</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3816,10 +3816,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9885220527648926</v>
+        <v>0.691319465637207</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01147797517478466</v>
+        <v>0.308680534362793</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3843,10 +3843,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9910891056060791</v>
+        <v>0.9601725935935974</v>
       </c>
       <c r="C127" t="n">
-        <v>0.008910916745662689</v>
+        <v>0.03982739523053169</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.005089461803436279</v>
+        <v>0.007208585739135742</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9949105381965637</v>
+        <v>0.9927914142608643</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3897,10 +3897,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2022594809532166</v>
+        <v>0.1424514055252075</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7977405190467834</v>
+        <v>0.8575485944747925</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3924,10 +3924,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4469695687294006</v>
+        <v>0.484203040599823</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5530304312705994</v>
+        <v>0.515796959400177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3951,10 +3951,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0540955662727356</v>
+        <v>0.1018052697181702</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9459044337272644</v>
+        <v>0.8981947302818298</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4840425848960876</v>
+        <v>0.7174118757247925</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5159574151039124</v>
+        <v>0.2825881540775299</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4005,10 +4005,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0160750150680542</v>
+        <v>0.04051661491394043</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9839249849319458</v>
+        <v>0.9594833850860596</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4032,10 +4032,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01226305961608887</v>
+        <v>0.004220247268676758</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9877369403839111</v>
+        <v>0.9957797527313232</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0007373690605163574</v>
+        <v>0.0008549690246582031</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9992626309394836</v>
+        <v>0.9991450309753418</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4086,10 +4086,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9849397540092468</v>
+        <v>0.9867141842842102</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01506023854017258</v>
+        <v>0.01328580919653177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4113,10 +4113,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9991076588630676</v>
+        <v>0.9918664693832397</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0008923510904423892</v>
+        <v>0.008133532479405403</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4140,10 +4140,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9583719968795776</v>
+        <v>0.9052216410636902</v>
       </c>
       <c r="C138" t="n">
-        <v>0.04162801429629326</v>
+        <v>0.09477837383747101</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4167,10 +4167,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.005916059017181396</v>
+        <v>0.002219140529632568</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9940839409828186</v>
+        <v>0.9977808594703674</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4194,10 +4194,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.004711270332336426</v>
+        <v>0.000162959098815918</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9952887296676636</v>
+        <v>0.9998370409011841</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4221,10 +4221,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.006656050682067871</v>
+        <v>0.00389707088470459</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9933439493179321</v>
+        <v>0.9961029291152954</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4248,10 +4248,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001260042190551758</v>
+        <v>0.003521621227264404</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9998739957809448</v>
+        <v>0.9964783787727356</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4275,10 +4275,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1208093166351318</v>
+        <v>0.01162028312683105</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8791906833648682</v>
+        <v>0.9883797168731689</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4302,10 +4302,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.005966246128082275</v>
+        <v>0.05262124538421631</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9940337538719177</v>
+        <v>0.9473787546157837</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000177919864654541</v>
+        <v>0.000168919563293457</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9998220801353455</v>
+        <v>0.9998310804367065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4356,10 +4356,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1367380023002625</v>
+        <v>0.1737708449363708</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8632619976997375</v>
+        <v>0.8262291550636292</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4383,10 +4383,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005911588668823242</v>
+        <v>0.000967860221862793</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9994088411331177</v>
+        <v>0.9990321397781372</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.07117927074432373</v>
+        <v>0.06226551532745361</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9288207292556763</v>
+        <v>0.9377344846725464</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4437,10 +4437,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2550336718559265</v>
+        <v>0.6683403253555298</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7449663281440735</v>
+        <v>0.3316596746444702</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4464,10 +4464,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8328783512115479</v>
+        <v>0.6962670087814331</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1671216487884521</v>
+        <v>0.3037329614162445</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4491,10 +4491,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1602715849876404</v>
+        <v>0.03219437599182129</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8397284150123596</v>
+        <v>0.9678056240081787</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7365501523017883</v>
+        <v>0.3817936182022095</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2634498476982117</v>
+        <v>0.6182063817977905</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4545,10 +4545,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01547569036483765</v>
+        <v>0.005665302276611328</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9845243096351624</v>
+        <v>0.9943346977233887</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4572,10 +4572,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.618975043296814</v>
+        <v>0.09745877981185913</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3810249865055084</v>
+        <v>0.9025412201881409</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4599,10 +4599,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9498980045318604</v>
+        <v>0.9395060539245605</v>
       </c>
       <c r="C155" t="n">
-        <v>0.05010201409459114</v>
+        <v>0.06049393489956856</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4626,10 +4626,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9979758262634277</v>
+        <v>0.9992407560348511</v>
       </c>
       <c r="C156" t="n">
-        <v>0.002024188637733459</v>
+        <v>0.0007592591573484242</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4653,10 +4653,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.955717921257019</v>
+        <v>0.8452725410461426</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04428206756711006</v>
+        <v>0.1547274738550186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4680,10 +4680,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.005872607231140137</v>
+        <v>0.0244821310043335</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9941273927688599</v>
+        <v>0.9755178689956665</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4707,10 +4707,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03354591131210327</v>
+        <v>0.02541500329971313</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9664540886878967</v>
+        <v>0.9745849967002869</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4734,10 +4734,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.008223891258239746</v>
+        <v>0.007456541061401367</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9917761087417603</v>
+        <v>0.9925434589385986</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4761,10 +4761,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1210173964500427</v>
+        <v>0.007127821445465088</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8789826035499573</v>
+        <v>0.9928721785545349</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4788,10 +4788,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.003532886505126953</v>
+        <v>0.02913248538970947</v>
       </c>
       <c r="C162" t="n">
-        <v>0.996467113494873</v>
+        <v>0.9708675146102905</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4815,10 +4815,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5279200077056885</v>
+        <v>0.07519716024398804</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4720799624919891</v>
+        <v>0.924802839756012</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4842,10 +4842,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.07500821352005005</v>
+        <v>0.890781044960022</v>
       </c>
       <c r="C164" t="n">
-        <v>0.92499178647995</v>
+        <v>0.1092189401388168</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4869,10 +4869,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001590251922607422</v>
+        <v>0.0009534955024719238</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9998409748077393</v>
+        <v>0.9990465044975281</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8421496748924255</v>
+        <v>0.2169491648674011</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1578503251075745</v>
+        <v>0.7830508351325989</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4923,10 +4923,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.978285551071167</v>
+        <v>0.8657592535018921</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02171441912651062</v>
+        <v>0.1342407166957855</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4950,10 +4950,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.01545107364654541</v>
+        <v>0.2708225250244141</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9845489263534546</v>
+        <v>0.7291774749755859</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4977,10 +4977,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.002863049507141113</v>
+        <v>0.01602202653884888</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9971369504928589</v>
+        <v>0.9839779734611511</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5004,10 +5004,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0009121894836425781</v>
+        <v>0.0001397132873535156</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9990878105163574</v>
+        <v>0.9998602867126465</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5031,10 +5031,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1575332880020142</v>
+        <v>0.8516467809677124</v>
       </c>
       <c r="C171" t="n">
-        <v>0.8424667119979858</v>
+        <v>0.14835324883461</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5058,10 +5058,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.003106951713562012</v>
+        <v>0.0003362894058227539</v>
       </c>
       <c r="C172" t="n">
-        <v>0.996893048286438</v>
+        <v>0.9996637105941772</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -5085,10 +5085,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.9446592926979065</v>
+        <v>0.2126606702804565</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0553407184779644</v>
+        <v>0.7873393297195435</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5112,10 +5112,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001605749130249023</v>
+        <v>0.002606630325317383</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9998394250869751</v>
+        <v>0.9973933696746826</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3517726063728333</v>
+        <v>0.9564444422721863</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6482273936271667</v>
+        <v>0.04355554282665253</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5166,10 +5166,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.9811530709266663</v>
+        <v>0.9976410865783691</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01884690672159195</v>
+        <v>0.002358922269195318</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5193,10 +5193,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6690698862075806</v>
+        <v>0.3960275053977966</v>
       </c>
       <c r="C177" t="n">
-        <v>0.330930083990097</v>
+        <v>0.6039724946022034</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5220,10 +5220,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.02626174688339233</v>
+        <v>0.006568491458892822</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9737382531166077</v>
+        <v>0.9934315085411072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5247,10 +5247,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5258970856666565</v>
+        <v>0.818732738494873</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4741029143333435</v>
+        <v>0.1812672466039658</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000780940055847168</v>
+        <v>0.002515196800231934</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9992190599441528</v>
+        <v>0.9974848031997681</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5301,10 +5301,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.002114236354827881</v>
+        <v>0.001379013061523438</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9978857636451721</v>
+        <v>0.9986209869384766</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5328,10 +5328,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5197291374206543</v>
+        <v>0.4793927669525146</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4802708327770233</v>
+        <v>0.5206072330474854</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5355,10 +5355,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.004661083221435547</v>
+        <v>0.004936516284942627</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9953389167785645</v>
+        <v>0.9950634837150574</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5382,10 +5382,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.09865188598632812</v>
+        <v>0.6931886672973633</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9013481140136719</v>
+        <v>0.3068113029003143</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5409,10 +5409,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0008751749992370605</v>
+        <v>0.002165257930755615</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9991248250007629</v>
+        <v>0.9978347420692444</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9971305131912231</v>
+        <v>0.9059965014457703</v>
       </c>
       <c r="C186" t="n">
-        <v>0.002869507065042853</v>
+        <v>0.09400352090597153</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5463,10 +5463,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002484679222106934</v>
+        <v>0.0005466341972351074</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9975153207778931</v>
+        <v>0.9994533658027649</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5490,10 +5490,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8257013559341431</v>
+        <v>0.8095289468765259</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1742986738681793</v>
+        <v>0.1904710680246353</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5517,10 +5517,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1205956935882568</v>
+        <v>0.0435604453086853</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8794043064117432</v>
+        <v>0.9564395546913147</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5544,10 +5544,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1454591155052185</v>
+        <v>0.2212062478065491</v>
       </c>
       <c r="C190" t="n">
-        <v>0.8545408844947815</v>
+        <v>0.7787937521934509</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5571,10 +5571,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9494701027870178</v>
+        <v>0.9733548164367676</v>
       </c>
       <c r="C191" t="n">
-        <v>0.05052988603711128</v>
+        <v>0.02664517238736153</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5598,10 +5598,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4855829477310181</v>
+        <v>0.3288224339485168</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5144170522689819</v>
+        <v>0.6711775660514832</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5625,10 +5625,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.45484459400177</v>
+        <v>0.06440585851669312</v>
       </c>
       <c r="C193" t="n">
-        <v>0.54515540599823</v>
+        <v>0.9355941414833069</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5652,10 +5652,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9080140590667725</v>
+        <v>0.7004824876785278</v>
       </c>
       <c r="C194" t="n">
-        <v>0.09198591113090515</v>
+        <v>0.2995174825191498</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.05423164367675781</v>
+        <v>0.002270996570587158</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9457683563232422</v>
+        <v>0.9977290034294128</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5706,10 +5706,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.006658613681793213</v>
+        <v>0.01262366771697998</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9933413863182068</v>
+        <v>0.98737633228302</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5733,10 +5733,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8849596977233887</v>
+        <v>0.9093618392944336</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1150402724742889</v>
+        <v>0.09063813090324402</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5760,10 +5760,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.04513722658157349</v>
+        <v>0.0161893367767334</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9548627734184265</v>
+        <v>0.9838106632232666</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.007074594497680664</v>
+        <v>0.01941013336181641</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9929254055023193</v>
+        <v>0.9805898666381836</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5814,10 +5814,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01221561431884766</v>
+        <v>0.00300133228302002</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9877843856811523</v>
+        <v>0.99699866771698</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5841,10 +5841,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9482231736183167</v>
+        <v>0.9979648590087891</v>
       </c>
       <c r="C201" t="n">
-        <v>0.05177683010697365</v>
+        <v>0.002035128884017467</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5868,10 +5868,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1284688711166382</v>
+        <v>0.03755921125411987</v>
       </c>
       <c r="C202" t="n">
-        <v>0.8715311288833618</v>
+        <v>0.9624407887458801</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5895,10 +5895,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.00112229585647583</v>
+        <v>0.0009333491325378418</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9988777041435242</v>
+        <v>0.9990666508674622</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5922,10 +5922,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1004350185394287</v>
+        <v>0.04850947856903076</v>
       </c>
       <c r="C204" t="n">
-        <v>0.8995649814605713</v>
+        <v>0.9514905214309692</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5949,10 +5949,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0006503462791442871</v>
+        <v>0.003068804740905762</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9993496537208557</v>
+        <v>0.9969311952590942</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5976,10 +5976,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.2596107721328735</v>
+        <v>0.15294349193573</v>
       </c>
       <c r="C206" t="n">
-        <v>0.7403892278671265</v>
+        <v>0.84705650806427</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -6003,10 +6003,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.003695130348205566</v>
+        <v>0.01764410734176636</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9963048696517944</v>
+        <v>0.9823558926582336</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -6030,10 +6030,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0005108118057250977</v>
+        <v>0.001745283603668213</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9994891881942749</v>
+        <v>0.9982547163963318</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -6057,10 +6057,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.9176868200302124</v>
+        <v>0.5753765106201172</v>
       </c>
       <c r="C209" t="n">
-        <v>0.08231315761804581</v>
+        <v>0.4246234893798828</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -6084,10 +6084,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.001768290996551514</v>
+        <v>0.0837370753288269</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9982317090034485</v>
+        <v>0.9162629246711731</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -6111,10 +6111,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8843913078308105</v>
+        <v>0.1382846236228943</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1156086996197701</v>
+        <v>0.8617153763771057</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -6138,10 +6138,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.002142846584320068</v>
+        <v>0.002645969390869141</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9978571534156799</v>
+        <v>0.9973540306091309</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -6165,10 +6165,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6863247752189636</v>
+        <v>0.9691721796989441</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3136752247810364</v>
+        <v>0.0308278352022171</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -6192,10 +6192,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.04540181159973145</v>
+        <v>0.02253246307373047</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9545981884002686</v>
+        <v>0.9774675369262695</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6219,10 +6219,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.06976264715194702</v>
+        <v>0.3507830500602722</v>
       </c>
       <c r="C215" t="n">
-        <v>0.930237352848053</v>
+        <v>0.6492169499397278</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6246,10 +6246,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.7740330100059509</v>
+        <v>0.1117281913757324</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2259669750928879</v>
+        <v>0.8882718086242676</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6273,10 +6273,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.06216967105865479</v>
+        <v>0.126746654510498</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9378303289413452</v>
+        <v>0.873253345489502</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -6300,10 +6300,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.001525700092315674</v>
+        <v>0.01456302404403687</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9984742999076843</v>
+        <v>0.9854369759559631</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -6327,10 +6327,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.003212332725524902</v>
+        <v>0.005687832832336426</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9967876672744751</v>
+        <v>0.9943121671676636</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -6354,10 +6354,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.002143204212188721</v>
+        <v>0.003844559192657471</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9978567957878113</v>
+        <v>0.9961554408073425</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -6381,10 +6381,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.009410977363586426</v>
+        <v>0.003080129623413086</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9905890226364136</v>
+        <v>0.9969198703765869</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.01562947034835815</v>
+        <v>0.03701210021972656</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9843705296516418</v>
+        <v>0.9629878997802734</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -6435,10 +6435,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1674653887748718</v>
+        <v>0.1313319802284241</v>
       </c>
       <c r="C223" t="n">
-        <v>0.8325346112251282</v>
+        <v>0.8686680197715759</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6462,10 +6462,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8012514114379883</v>
+        <v>0.8222025036811829</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1987485736608505</v>
+        <v>0.1777974963188171</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6489,10 +6489,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.06703460216522217</v>
+        <v>0.001693844795227051</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9329653978347778</v>
+        <v>0.9983061552047729</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6516,10 +6516,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1537758708000183</v>
+        <v>0.007396399974822998</v>
       </c>
       <c r="C226" t="n">
-        <v>0.8462241291999817</v>
+        <v>0.992603600025177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
